--- a/public/template/PMS Material Upload Template.xlsx
+++ b/public/template/PMS Material Upload Template.xlsx
@@ -20,33 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">MachineId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialGroup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WarehouseName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DrawingNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StandardQty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InitialStock</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Call Sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ESP5</t>
   </si>
   <si>
     <t xml:space="preserve">GE</t>
@@ -77,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
@@ -107,6 +113,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -125,6 +137,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -151,17 +170,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,105 +322,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6015625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="n">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="6" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="장비를 등록할 선박의 Call Sign을 넣습니다." promptTitle="Call Sign" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A3" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
